--- a/data/survey/simsurvey_crosscheck_summary.xlsx
+++ b/data/survey/simsurvey_crosscheck_summary.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5394590_ad_unsw_edu_au/Documents/Documents/Projects/simsurvey/data/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A8F46B84-587C-48BC-83D7-FABFB16B1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F0AEF49-F6D3-4C07-8916-C291F81BBB2C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A8F46B84-587C-48BC-83D7-FABFB16B1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABAB2E0-DB89-44CC-8341-587A2FF1F842}"/>
   <bookViews>
-    <workbookView xWindow="38535" yWindow="2925" windowWidth="12255" windowHeight="15285" xr2:uid="{C9FB8EBE-6E4D-4951-8A08-272AFB88095A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{C9FB8EBE-6E4D-4951-8A08-272AFB88095A}"/>
   </bookViews>
   <sheets>
     <sheet name="crosscheck summary" sheetId="1" r:id="rId1"/>
-    <sheet name="crosschecked papers" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="crosschecked papers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -509,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -807,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEE6B5D-BF0E-4549-B86B-A8A1F94771F7}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A42" sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,6 +1160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458FD15-D2B0-490B-B11D-56B2A107B2B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B6D673-96AC-4B40-BB2D-681C414B6FE2}">
   <dimension ref="A1:E22"/>
   <sheetViews>
